--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Apoe-Sorl1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Apoe-Sorl1.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>100.8373843333333</v>
+        <v>26.127733</v>
       </c>
       <c r="H2">
-        <v>302.512153</v>
+        <v>78.383199</v>
       </c>
       <c r="I2">
-        <v>0.6551985585448407</v>
+        <v>0.2666992864894373</v>
       </c>
       <c r="J2">
-        <v>0.6551985585448408</v>
+        <v>0.2666992864894374</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>86.09667233333334</v>
+        <v>0.03508633333333333</v>
       </c>
       <c r="N2">
-        <v>258.290017</v>
+        <v>0.105259</v>
       </c>
       <c r="O2">
-        <v>0.9236051571299395</v>
+        <v>0.004489537393262644</v>
       </c>
       <c r="P2">
-        <v>0.9236051571299394</v>
+        <v>0.004489537393262644</v>
       </c>
       <c r="Q2">
-        <v>8681.763237897401</v>
+        <v>0.9167263492823333</v>
       </c>
       <c r="R2">
-        <v>78135.86914107662</v>
+        <v>8.250537143540999</v>
       </c>
       <c r="S2">
-        <v>0.6051447676161175</v>
+        <v>0.001197356419450795</v>
       </c>
       <c r="T2">
-        <v>0.6051447676161175</v>
+        <v>0.001197356419450796</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>100.8373843333333</v>
+        <v>26.127733</v>
       </c>
       <c r="H3">
-        <v>302.512153</v>
+        <v>78.383199</v>
       </c>
       <c r="I3">
-        <v>0.6551985585448407</v>
+        <v>0.2666992864894373</v>
       </c>
       <c r="J3">
-        <v>0.6551985585448408</v>
+        <v>0.2666992864894374</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.911922333333333</v>
+        <v>4.911922333333334</v>
       </c>
       <c r="N3">
         <v>14.735767</v>
       </c>
       <c r="O3">
-        <v>0.05269282395635591</v>
+        <v>0.6285142074777995</v>
       </c>
       <c r="P3">
-        <v>0.0526928239563559</v>
+        <v>0.6285142074777995</v>
       </c>
       <c r="Q3">
-        <v>495.3054001418167</v>
+        <v>128.3373952420704</v>
       </c>
       <c r="R3">
-        <v>4457.748601276351</v>
+        <v>1155.036557178633</v>
       </c>
       <c r="S3">
-        <v>0.03452426230186144</v>
+        <v>0.1676242906828033</v>
       </c>
       <c r="T3">
-        <v>0.03452426230186144</v>
+        <v>0.1676242906828033</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>100.8373843333333</v>
+        <v>26.127733</v>
       </c>
       <c r="H4">
-        <v>302.512153</v>
+        <v>78.383199</v>
       </c>
       <c r="I4">
-        <v>0.6551985585448407</v>
+        <v>0.2666992864894373</v>
       </c>
       <c r="J4">
-        <v>0.6551985585448408</v>
+        <v>0.2666992864894374</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.209456</v>
+        <v>2.868124666666667</v>
       </c>
       <c r="N4">
-        <v>6.628368</v>
+        <v>8.604374</v>
       </c>
       <c r="O4">
-        <v>0.02370201891370452</v>
+        <v>0.3669962551289379</v>
       </c>
       <c r="P4">
-        <v>0.02370201891370452</v>
+        <v>0.3669962551289379</v>
       </c>
       <c r="Q4">
-        <v>222.7957638395893</v>
+        <v>74.93759550138067</v>
       </c>
       <c r="R4">
-        <v>2005.161874556304</v>
+        <v>674.438359512426</v>
       </c>
       <c r="S4">
-        <v>0.01552952862686175</v>
+        <v>0.09787763938718322</v>
       </c>
       <c r="T4">
-        <v>0.01552952862686175</v>
+        <v>0.09787763938718325</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>71.72390799999999</v>
       </c>
       <c r="I5">
-        <v>0.1553438454249564</v>
+        <v>0.2440410104700376</v>
       </c>
       <c r="J5">
-        <v>0.1553438454249564</v>
+        <v>0.2440410104700377</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>86.09667233333334</v>
+        <v>0.03508633333333333</v>
       </c>
       <c r="N5">
-        <v>258.290017</v>
+        <v>0.105259</v>
       </c>
       <c r="O5">
-        <v>0.9236051571299395</v>
+        <v>0.004489537393262644</v>
       </c>
       <c r="P5">
-        <v>0.9236051571299394</v>
+        <v>0.004489537393262644</v>
       </c>
       <c r="Q5">
-        <v>2058.396601847382</v>
+        <v>0.8388429813524443</v>
       </c>
       <c r="R5">
-        <v>18525.56941662644</v>
+        <v>7.549586832171999</v>
       </c>
       <c r="S5">
-        <v>0.1434763767628859</v>
+        <v>0.001095631241994834</v>
       </c>
       <c r="T5">
-        <v>0.1434763767628859</v>
+        <v>0.001095631241994834</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>71.72390799999999</v>
       </c>
       <c r="I6">
-        <v>0.1553438454249564</v>
+        <v>0.2440410104700376</v>
       </c>
       <c r="J6">
-        <v>0.1553438454249564</v>
+        <v>0.2440410104700377</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.911922333333333</v>
+        <v>4.911922333333334</v>
       </c>
       <c r="N6">
         <v>14.735767</v>
       </c>
       <c r="O6">
-        <v>0.05269282395635591</v>
+        <v>0.6285142074777995</v>
       </c>
       <c r="P6">
-        <v>0.0526928239563559</v>
+        <v>0.6285142074777995</v>
       </c>
       <c r="Q6">
-        <v>117.4340885130484</v>
+        <v>117.4340885130485</v>
       </c>
       <c r="R6">
         <v>1056.906796617436</v>
       </c>
       <c r="S6">
-        <v>0.008185505899680593</v>
+        <v>0.153383242287657</v>
       </c>
       <c r="T6">
-        <v>0.008185505899680591</v>
+        <v>0.1533832422876571</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>71.72390799999999</v>
       </c>
       <c r="I7">
-        <v>0.1553438454249564</v>
+        <v>0.2440410104700376</v>
       </c>
       <c r="J7">
-        <v>0.1553438454249564</v>
+        <v>0.2440410104700377</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.209456</v>
+        <v>2.868124666666667</v>
       </c>
       <c r="N7">
-        <v>6.628368</v>
+        <v>8.604374</v>
       </c>
       <c r="O7">
-        <v>0.02370201891370452</v>
+        <v>0.3669962551289379</v>
       </c>
       <c r="P7">
-        <v>0.02370201891370452</v>
+        <v>0.3669962551289379</v>
       </c>
       <c r="Q7">
-        <v>52.82360629134932</v>
+        <v>68.57103657484355</v>
       </c>
       <c r="R7">
-        <v>475.412456622144</v>
+        <v>617.1393291735919</v>
       </c>
       <c r="S7">
-        <v>0.003681962762389908</v>
+        <v>0.08956213694038571</v>
       </c>
       <c r="T7">
-        <v>0.003681962762389908</v>
+        <v>0.08956213694038573</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>29.15819666666667</v>
+        <v>47.93131266666666</v>
       </c>
       <c r="H8">
-        <v>87.47459000000001</v>
+        <v>143.793938</v>
       </c>
       <c r="I8">
-        <v>0.1894575960302029</v>
+        <v>0.489259703040525</v>
       </c>
       <c r="J8">
-        <v>0.1894575960302029</v>
+        <v>0.4892597030405251</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>86.09667233333334</v>
+        <v>0.03508633333333333</v>
       </c>
       <c r="N8">
-        <v>258.290017</v>
+        <v>0.105259</v>
       </c>
       <c r="O8">
-        <v>0.9236051571299395</v>
+        <v>0.004489537393262644</v>
       </c>
       <c r="P8">
-        <v>0.9236051571299394</v>
+        <v>0.004489537393262644</v>
       </c>
       <c r="Q8">
-        <v>2510.423704240893</v>
+        <v>1.681734013326889</v>
       </c>
       <c r="R8">
-        <v>22593.81333816803</v>
+        <v>15.135606119942</v>
       </c>
       <c r="S8">
-        <v>0.1749840127509362</v>
+        <v>0.002196549731817014</v>
       </c>
       <c r="T8">
-        <v>0.1749840127509362</v>
+        <v>0.002196549731817014</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>29.15819666666667</v>
+        <v>47.93131266666666</v>
       </c>
       <c r="H9">
-        <v>87.47459000000001</v>
+        <v>143.793938</v>
       </c>
       <c r="I9">
-        <v>0.1894575960302029</v>
+        <v>0.489259703040525</v>
       </c>
       <c r="J9">
-        <v>0.1894575960302029</v>
+        <v>0.4892597030405251</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.911922333333333</v>
+        <v>4.911922333333334</v>
       </c>
       <c r="N9">
         <v>14.735767</v>
       </c>
       <c r="O9">
-        <v>0.05269282395635591</v>
+        <v>0.6285142074777995</v>
       </c>
       <c r="P9">
-        <v>0.0526928239563559</v>
+        <v>0.6285142074777995</v>
       </c>
       <c r="Q9">
-        <v>143.2227974067256</v>
+        <v>235.4348851533829</v>
       </c>
       <c r="R9">
-        <v>1289.00517666053</v>
+        <v>2118.913966380446</v>
       </c>
       <c r="S9">
-        <v>0.009983055754813877</v>
+        <v>0.3075066745073391</v>
       </c>
       <c r="T9">
-        <v>0.009983055754813876</v>
+        <v>0.3075066745073392</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>29.15819666666667</v>
+        <v>47.93131266666666</v>
       </c>
       <c r="H10">
-        <v>87.47459000000001</v>
+        <v>143.793938</v>
       </c>
       <c r="I10">
-        <v>0.1894575960302029</v>
+        <v>0.489259703040525</v>
       </c>
       <c r="J10">
-        <v>0.1894575960302029</v>
+        <v>0.4892597030405251</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.209456</v>
+        <v>2.868124666666667</v>
       </c>
       <c r="N10">
-        <v>6.628368</v>
+        <v>8.604374</v>
       </c>
       <c r="O10">
-        <v>0.02370201891370452</v>
+        <v>0.3669962551289379</v>
       </c>
       <c r="P10">
-        <v>0.02370201891370452</v>
+        <v>0.3669962551289379</v>
       </c>
       <c r="Q10">
-        <v>64.42375257434666</v>
+        <v>137.4729801649791</v>
       </c>
       <c r="R10">
-        <v>579.8137731691201</v>
+        <v>1237.256821484812</v>
       </c>
       <c r="S10">
-        <v>0.00449052752445286</v>
+        <v>0.1795564788013689</v>
       </c>
       <c r="T10">
-        <v>0.00449052752445286</v>
+        <v>0.1795564788013689</v>
       </c>
     </row>
   </sheetData>
